--- a/simulations/cleaned_inclusion_exclusion/Muthu_2021 IEC_clean/output/tables/time_to_discovery/tds_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/Muthu_2021 IEC_clean/output/tables/time_to_discovery/tds_sim.xlsx
@@ -414,10 +414,10 @@
         <v>708</v>
       </c>
       <c r="C2">
-        <v>717</v>
+        <v>677</v>
       </c>
       <c r="D2">
-        <v>712.5</v>
+        <v>692.5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,10 +428,10 @@
         <v>329</v>
       </c>
       <c r="C3">
-        <v>356</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>342.5</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -442,10 +442,10 @@
         <v>735</v>
       </c>
       <c r="C4">
-        <v>858</v>
+        <v>787</v>
       </c>
       <c r="D4">
-        <v>796.5</v>
+        <v>761</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -456,10 +456,10 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="D5">
-        <v>45.5</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -470,10 +470,10 @@
         <v>528</v>
       </c>
       <c r="C6">
-        <v>504</v>
+        <v>570</v>
       </c>
       <c r="D6">
-        <v>516</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -484,10 +484,10 @@
         <v>177</v>
       </c>
       <c r="C7">
-        <v>60</v>
+        <v>257</v>
       </c>
       <c r="D7">
-        <v>118.5</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -498,10 +498,10 @@
         <v>322</v>
       </c>
       <c r="C8">
-        <v>352</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>337</v>
+        <v>161.5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -512,10 +512,10 @@
         <v>44</v>
       </c>
       <c r="C9">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="D9">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -526,10 +526,10 @@
         <v>136</v>
       </c>
       <c r="C10">
-        <v>168</v>
+        <v>224</v>
       </c>
       <c r="D10">
-        <v>152</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -540,10 +540,10 @@
         <v>1557</v>
       </c>
       <c r="C11">
-        <v>1550</v>
+        <v>1557</v>
       </c>
       <c r="D11">
-        <v>1553.5</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -554,10 +554,10 @@
         <v>850</v>
       </c>
       <c r="C12">
-        <v>881</v>
+        <v>744</v>
       </c>
       <c r="D12">
-        <v>865.5</v>
+        <v>797</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -568,10 +568,10 @@
         <v>740</v>
       </c>
       <c r="C13">
-        <v>734</v>
+        <v>685</v>
       </c>
       <c r="D13">
-        <v>737</v>
+        <v>712.5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -582,10 +582,10 @@
         <v>60</v>
       </c>
       <c r="C14">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="D14">
-        <v>74.5</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -596,10 +596,10 @@
         <v>1555</v>
       </c>
       <c r="C15">
-        <v>1515</v>
+        <v>1471</v>
       </c>
       <c r="D15">
-        <v>1535</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -610,10 +610,10 @@
         <v>1041</v>
       </c>
       <c r="C16">
-        <v>1025</v>
+        <v>1069</v>
       </c>
       <c r="D16">
-        <v>1033</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -624,10 +624,10 @@
         <v>496</v>
       </c>
       <c r="C17">
-        <v>524</v>
+        <v>480</v>
       </c>
       <c r="D17">
-        <v>510</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -638,10 +638,10 @@
         <v>279</v>
       </c>
       <c r="C18">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="D18">
-        <v>298.5</v>
+        <v>303.5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -652,10 +652,10 @@
         <v>74</v>
       </c>
       <c r="C19">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D19">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -666,10 +666,10 @@
         <v>265</v>
       </c>
       <c r="C20">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D20">
-        <v>279.5</v>
+        <v>283.5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -680,10 +680,10 @@
         <v>68</v>
       </c>
       <c r="C21">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="D21">
-        <v>85.5</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -694,10 +694,10 @@
         <v>1335</v>
       </c>
       <c r="C22">
-        <v>1310</v>
+        <v>1351</v>
       </c>
       <c r="D22">
-        <v>1322.5</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -708,10 +708,10 @@
         <v>780</v>
       </c>
       <c r="C23">
-        <v>771</v>
+        <v>839</v>
       </c>
       <c r="D23">
-        <v>775.5</v>
+        <v>809.5</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -722,10 +722,10 @@
         <v>739</v>
       </c>
       <c r="C24">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="D24">
-        <v>777.5</v>
+        <v>775.5</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -736,10 +736,10 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D25">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -750,10 +750,10 @@
         <v>705</v>
       </c>
       <c r="C26">
-        <v>710</v>
+        <v>769</v>
       </c>
       <c r="D26">
-        <v>707.5</v>
+        <v>737</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -764,10 +764,10 @@
         <v>531</v>
       </c>
       <c r="C27">
-        <v>609</v>
+        <v>535</v>
       </c>
       <c r="D27">
-        <v>570</v>
+        <v>533</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -778,10 +778,10 @@
         <v>38</v>
       </c>
       <c r="C28">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="D28">
-        <v>65</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -792,10 +792,10 @@
         <v>49</v>
       </c>
       <c r="C29">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D29">
-        <v>75.5</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -806,10 +806,10 @@
         <v>172</v>
       </c>
       <c r="C30">
-        <v>62</v>
+        <v>236</v>
       </c>
       <c r="D30">
-        <v>117</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -820,10 +820,10 @@
         <v>896</v>
       </c>
       <c r="C31">
-        <v>933</v>
+        <v>888</v>
       </c>
       <c r="D31">
-        <v>914.5</v>
+        <v>892</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -834,10 +834,10 @@
         <v>1803</v>
       </c>
       <c r="C32">
-        <v>1826</v>
+        <v>1860</v>
       </c>
       <c r="D32">
-        <v>1814.5</v>
+        <v>1831.5</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -848,10 +848,10 @@
         <v>67</v>
       </c>
       <c r="C33">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D33">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -862,10 +862,10 @@
         <v>59</v>
       </c>
       <c r="C34">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="D34">
-        <v>89.5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -876,10 +876,10 @@
         <v>483</v>
       </c>
       <c r="C35">
-        <v>493</v>
+        <v>457</v>
       </c>
       <c r="D35">
-        <v>488</v>
+        <v>470</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -890,10 +890,10 @@
         <v>65</v>
       </c>
       <c r="C36">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D36">
-        <v>101.5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -904,10 +904,10 @@
         <v>869</v>
       </c>
       <c r="C37">
-        <v>721</v>
+        <v>770</v>
       </c>
       <c r="D37">
-        <v>795</v>
+        <v>819.5</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -918,10 +918,10 @@
         <v>22</v>
       </c>
       <c r="C38">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="D38">
-        <v>49.5</v>
+        <v>65.5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -932,10 +932,10 @@
         <v>18</v>
       </c>
       <c r="C39">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="D39">
-        <v>45.5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -946,10 +946,10 @@
         <v>1333</v>
       </c>
       <c r="C40">
-        <v>1434</v>
+        <v>1312</v>
       </c>
       <c r="D40">
-        <v>1383.5</v>
+        <v>1322.5</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -960,10 +960,10 @@
         <v>77</v>
       </c>
       <c r="C41">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D41">
-        <v>115.5</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -974,10 +974,10 @@
         <v>8</v>
       </c>
       <c r="C42">
-        <v>191</v>
+        <v>28</v>
       </c>
       <c r="D42">
-        <v>99.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -988,10 +988,10 @@
         <v>360</v>
       </c>
       <c r="C43">
-        <v>415</v>
+        <v>377</v>
       </c>
       <c r="D43">
-        <v>387.5</v>
+        <v>368.5</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1002,10 +1002,10 @@
         <v>246</v>
       </c>
       <c r="C44">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="D44">
-        <v>271</v>
+        <v>278.5</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1016,10 +1016,10 @@
         <v>1171</v>
       </c>
       <c r="C45">
-        <v>1107</v>
+        <v>1218</v>
       </c>
       <c r="D45">
-        <v>1139</v>
+        <v>1194.5</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1030,10 +1030,10 @@
         <v>351</v>
       </c>
       <c r="C46">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="D46">
-        <v>362</v>
+        <v>349</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1044,10 +1044,10 @@
         <v>25</v>
       </c>
       <c r="C47">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="D47">
-        <v>52.5</v>
+        <v>63.5</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1058,10 +1058,10 @@
         <v>79</v>
       </c>
       <c r="C48">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="D48">
-        <v>103.5</v>
+        <v>117.5</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1072,10 +1072,10 @@
         <v>14</v>
       </c>
       <c r="C49">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="D49">
-        <v>44.5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1086,10 +1086,10 @@
         <v>1762</v>
       </c>
       <c r="C50">
-        <v>1806</v>
+        <v>1802</v>
       </c>
       <c r="D50">
-        <v>1784</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1100,10 +1100,10 @@
         <v>231</v>
       </c>
       <c r="C51">
-        <v>32</v>
+        <v>280</v>
       </c>
       <c r="D51">
-        <v>131.5</v>
+        <v>255.5</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1114,10 +1114,10 @@
         <v>517</v>
       </c>
       <c r="C52">
-        <v>457</v>
+        <v>525</v>
       </c>
       <c r="D52">
-        <v>487</v>
+        <v>521</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1128,10 +1128,10 @@
         <v>48</v>
       </c>
       <c r="C53">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="D53">
-        <v>79.5</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1142,10 +1142,10 @@
         <v>1082</v>
       </c>
       <c r="C54">
-        <v>1082</v>
+        <v>1120</v>
       </c>
       <c r="D54">
-        <v>1082</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1156,10 +1156,10 @@
         <v>1451</v>
       </c>
       <c r="C55">
-        <v>1456</v>
+        <v>1409</v>
       </c>
       <c r="D55">
-        <v>1453.5</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1170,10 +1170,10 @@
         <v>808</v>
       </c>
       <c r="C56">
-        <v>633</v>
+        <v>859</v>
       </c>
       <c r="D56">
-        <v>720.5</v>
+        <v>833.5</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1184,10 +1184,10 @@
         <v>101</v>
       </c>
       <c r="C57">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="D57">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1198,10 +1198,10 @@
         <v>875</v>
       </c>
       <c r="C58">
-        <v>807</v>
+        <v>883</v>
       </c>
       <c r="D58">
-        <v>841</v>
+        <v>879</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1212,10 +1212,10 @@
         <v>872</v>
       </c>
       <c r="C59">
-        <v>811</v>
+        <v>823</v>
       </c>
       <c r="D59">
-        <v>841.5</v>
+        <v>847.5</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1226,10 +1226,10 @@
         <v>24</v>
       </c>
       <c r="C60">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="D60">
-        <v>51.5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1240,10 +1240,10 @@
         <v>349</v>
       </c>
       <c r="C61">
-        <v>359</v>
+        <v>13</v>
       </c>
       <c r="D61">
-        <v>354</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1254,10 +1254,10 @@
         <v>97</v>
       </c>
       <c r="C62">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="D62">
-        <v>117</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1268,10 +1268,10 @@
         <v>26</v>
       </c>
       <c r="C63">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D63">
-        <v>54</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1282,10 +1282,10 @@
         <v>212</v>
       </c>
       <c r="C64">
-        <v>57</v>
+        <v>283</v>
       </c>
       <c r="D64">
-        <v>134.5</v>
+        <v>247.5</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1296,10 +1296,10 @@
         <v>278</v>
       </c>
       <c r="C65">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="D65">
-        <v>294.5</v>
+        <v>305.5</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1310,10 +1310,10 @@
         <v>703</v>
       </c>
       <c r="C66">
-        <v>735</v>
+        <v>646</v>
       </c>
       <c r="D66">
-        <v>719</v>
+        <v>674.5</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1324,10 +1324,10 @@
         <v>1073</v>
       </c>
       <c r="C67">
-        <v>1044</v>
+        <v>1102</v>
       </c>
       <c r="D67">
-        <v>1058.5</v>
+        <v>1087.5</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1338,10 +1338,10 @@
         <v>1707</v>
       </c>
       <c r="C68">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="D68">
-        <v>1696.5</v>
+        <v>1694.5</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1352,10 +1352,10 @@
         <v>606</v>
       </c>
       <c r="C69">
-        <v>596</v>
+        <v>627</v>
       </c>
       <c r="D69">
-        <v>601</v>
+        <v>616.5</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1366,10 +1366,10 @@
         <v>1030</v>
       </c>
       <c r="C70">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="D70">
-        <v>1016.5</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1380,10 +1380,10 @@
         <v>784</v>
       </c>
       <c r="C71">
-        <v>781</v>
+        <v>842</v>
       </c>
       <c r="D71">
-        <v>782.5</v>
+        <v>813</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1394,10 +1394,10 @@
         <v>807</v>
       </c>
       <c r="C72">
-        <v>820</v>
+        <v>863</v>
       </c>
       <c r="D72">
-        <v>813.5</v>
+        <v>835</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1408,10 +1408,10 @@
         <v>29</v>
       </c>
       <c r="C73">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="D73">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1422,10 +1422,10 @@
         <v>975</v>
       </c>
       <c r="C74">
-        <v>910</v>
+        <v>953</v>
       </c>
       <c r="D74">
-        <v>942.5</v>
+        <v>964</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1436,10 +1436,10 @@
         <v>897</v>
       </c>
       <c r="C75">
-        <v>871</v>
+        <v>932</v>
       </c>
       <c r="D75">
-        <v>884</v>
+        <v>914.5</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1450,10 +1450,10 @@
         <v>823</v>
       </c>
       <c r="C76">
-        <v>791</v>
+        <v>750</v>
       </c>
       <c r="D76">
-        <v>807</v>
+        <v>786.5</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1464,10 +1464,10 @@
         <v>235</v>
       </c>
       <c r="C77">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D77">
-        <v>131.5</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1478,10 +1478,10 @@
         <v>593</v>
       </c>
       <c r="C78">
-        <v>562</v>
+        <v>600</v>
       </c>
       <c r="D78">
-        <v>577.5</v>
+        <v>596.5</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1492,10 +1492,10 @@
         <v>238</v>
       </c>
       <c r="C79">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="D79">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1506,10 +1506,10 @@
         <v>950</v>
       </c>
       <c r="C80">
-        <v>941</v>
+        <v>969</v>
       </c>
       <c r="D80">
-        <v>945.5</v>
+        <v>959.5</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1520,10 +1520,10 @@
         <v>779</v>
       </c>
       <c r="C81">
-        <v>768</v>
+        <v>840</v>
       </c>
       <c r="D81">
-        <v>773.5</v>
+        <v>809.5</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1534,10 +1534,10 @@
         <v>754</v>
       </c>
       <c r="C82">
-        <v>877</v>
+        <v>694</v>
       </c>
       <c r="D82">
-        <v>815.5</v>
+        <v>724</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1548,10 +1548,10 @@
         <v>797</v>
       </c>
       <c r="C83">
-        <v>787</v>
+        <v>846</v>
       </c>
       <c r="D83">
-        <v>792</v>
+        <v>821.5</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1562,10 +1562,10 @@
         <v>960</v>
       </c>
       <c r="C84">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="D84">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1576,10 +1576,10 @@
         <v>35</v>
       </c>
       <c r="C85">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D85">
-        <v>61.5</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1590,10 +1590,10 @@
         <v>1253</v>
       </c>
       <c r="C86">
-        <v>1173</v>
+        <v>1205</v>
       </c>
       <c r="D86">
-        <v>1213</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1601,10 +1601,10 @@
         <v>719</v>
       </c>
       <c r="C87">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D87">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1615,10 +1615,10 @@
         <v>1037</v>
       </c>
       <c r="C88">
+        <v>1017</v>
+      </c>
+      <c r="D88">
         <v>1027</v>
-      </c>
-      <c r="D88">
-        <v>1032</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1629,10 +1629,10 @@
         <v>99</v>
       </c>
       <c r="C89">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="D89">
-        <v>123.5</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1643,10 +1643,10 @@
         <v>1278</v>
       </c>
       <c r="C90">
-        <v>1276</v>
+        <v>1176</v>
       </c>
       <c r="D90">
-        <v>1277</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1671,10 +1671,10 @@
         <v>1674</v>
       </c>
       <c r="C92">
-        <v>1649</v>
+        <v>1709</v>
       </c>
       <c r="D92">
-        <v>1661.5</v>
+        <v>1691.5</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1685,10 +1685,10 @@
         <v>291</v>
       </c>
       <c r="C93">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D93">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1699,10 +1699,10 @@
         <v>631</v>
       </c>
       <c r="C94">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="D94">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1713,10 +1713,10 @@
         <v>1628</v>
       </c>
       <c r="C95">
-        <v>1627</v>
+        <v>1605</v>
       </c>
       <c r="D95">
-        <v>1627.5</v>
+        <v>1616.5</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1727,10 +1727,10 @@
         <v>345</v>
       </c>
       <c r="C96">
-        <v>367</v>
+        <v>6</v>
       </c>
       <c r="D96">
-        <v>356</v>
+        <v>175.5</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1741,10 +1741,10 @@
         <v>307</v>
       </c>
       <c r="C97">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="D97">
-        <v>299.5</v>
+        <v>318.5</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1755,10 +1755,10 @@
         <v>442</v>
       </c>
       <c r="C98">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D98">
-        <v>457</v>
+        <v>453.5</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1769,10 +1769,10 @@
         <v>1207</v>
       </c>
       <c r="C99">
-        <v>1284</v>
+        <v>1090</v>
       </c>
       <c r="D99">
-        <v>1245.5</v>
+        <v>1148.5</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1783,10 +1783,10 @@
         <v>62</v>
       </c>
       <c r="C100">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="D100">
-        <v>98.5</v>
+        <v>114.5</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1797,10 +1797,10 @@
         <v>954</v>
       </c>
       <c r="C101">
-        <v>907</v>
+        <v>951</v>
       </c>
       <c r="D101">
-        <v>930.5</v>
+        <v>952.5</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1811,10 +1811,10 @@
         <v>848</v>
       </c>
       <c r="C102">
-        <v>860</v>
+        <v>763</v>
       </c>
       <c r="D102">
-        <v>854</v>
+        <v>805.5</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1825,10 +1825,10 @@
         <v>168</v>
       </c>
       <c r="C103">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="D103">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1839,10 +1839,10 @@
         <v>1446</v>
       </c>
       <c r="C104">
-        <v>1498</v>
+        <v>1536</v>
       </c>
       <c r="D104">
-        <v>1472</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1853,10 +1853,10 @@
         <v>763</v>
       </c>
       <c r="C105">
-        <v>760</v>
+        <v>833</v>
       </c>
       <c r="D105">
-        <v>761.5</v>
+        <v>798</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1867,10 +1867,10 @@
         <v>867</v>
       </c>
       <c r="C106">
-        <v>932</v>
+        <v>914</v>
       </c>
       <c r="D106">
-        <v>899.5</v>
+        <v>890.5</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1881,10 +1881,10 @@
         <v>1416</v>
       </c>
       <c r="C107">
-        <v>1465</v>
+        <v>1432</v>
       </c>
       <c r="D107">
-        <v>1440.5</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1895,10 +1895,10 @@
         <v>90</v>
       </c>
       <c r="C108">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="D108">
-        <v>130.5</v>
+        <v>136</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1909,10 +1909,10 @@
         <v>210</v>
       </c>
       <c r="C109">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="D109">
-        <v>229</v>
+        <v>242.5</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1923,10 +1923,10 @@
         <v>1319</v>
       </c>
       <c r="C110">
-        <v>1256</v>
+        <v>1284</v>
       </c>
       <c r="D110">
-        <v>1287.5</v>
+        <v>1301.5</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1937,10 +1937,10 @@
         <v>296</v>
       </c>
       <c r="C111">
-        <v>372</v>
+        <v>317</v>
       </c>
       <c r="D111">
-        <v>334</v>
+        <v>306.5</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1951,10 +1951,10 @@
         <v>588</v>
       </c>
       <c r="C112">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="D112">
-        <v>585</v>
+        <v>590</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1965,10 +1965,10 @@
         <v>1493</v>
       </c>
       <c r="C113">
-        <v>1428</v>
+        <v>1469</v>
       </c>
       <c r="D113">
-        <v>1460.5</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1979,10 +1979,10 @@
         <v>70</v>
       </c>
       <c r="C114">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D114">
-        <v>108.5</v>
+        <v>107</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1993,10 +1993,10 @@
         <v>131</v>
       </c>
       <c r="C115">
-        <v>214</v>
+        <v>61</v>
       </c>
       <c r="D115">
-        <v>172.5</v>
+        <v>96</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2007,10 +2007,10 @@
         <v>858</v>
       </c>
       <c r="C116">
-        <v>931</v>
+        <v>877</v>
       </c>
       <c r="D116">
-        <v>894.5</v>
+        <v>867.5</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2021,10 +2021,10 @@
         <v>124</v>
       </c>
       <c r="C117">
-        <v>197</v>
+        <v>69</v>
       </c>
       <c r="D117">
-        <v>160.5</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2035,10 +2035,10 @@
         <v>319</v>
       </c>
       <c r="C118">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="D118">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2049,10 +2049,10 @@
         <v>497</v>
       </c>
       <c r="C119">
-        <v>543</v>
+        <v>476</v>
       </c>
       <c r="D119">
-        <v>520</v>
+        <v>486.5</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2063,10 +2063,10 @@
         <v>39</v>
       </c>
       <c r="C120">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="D120">
-        <v>66.5</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2077,10 +2077,10 @@
         <v>127</v>
       </c>
       <c r="C121">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D121">
-        <v>158.5</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2091,10 +2091,10 @@
         <v>139</v>
       </c>
       <c r="C122">
-        <v>51</v>
+        <v>218</v>
       </c>
       <c r="D122">
-        <v>95</v>
+        <v>178.5</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2105,10 +2105,10 @@
         <v>971</v>
       </c>
       <c r="C123">
-        <v>1083</v>
+        <v>1030</v>
       </c>
       <c r="D123">
-        <v>1027</v>
+        <v>1000.5</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2119,10 +2119,10 @@
         <v>510</v>
       </c>
       <c r="C124">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D124">
-        <v>527.5</v>
+        <v>526.5</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2133,10 +2133,10 @@
         <v>737</v>
       </c>
       <c r="C125">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="D125">
-        <v>751.5</v>
+        <v>748.5</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2147,10 +2147,10 @@
         <v>782</v>
       </c>
       <c r="C126">
-        <v>772</v>
+        <v>841</v>
       </c>
       <c r="D126">
-        <v>777</v>
+        <v>811.5</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2161,10 +2161,10 @@
         <v>1642</v>
       </c>
       <c r="C127">
-        <v>1677</v>
+        <v>1627</v>
       </c>
       <c r="D127">
-        <v>1659.5</v>
+        <v>1634.5</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2175,10 +2175,10 @@
         <v>114</v>
       </c>
       <c r="C128">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="D128">
-        <v>160.5</v>
+        <v>150.5</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2189,10 +2189,10 @@
         <v>216</v>
       </c>
       <c r="C129">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="D129">
-        <v>221</v>
+        <v>233.5</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2203,10 +2203,10 @@
         <v>222</v>
       </c>
       <c r="C130">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="D130">
-        <v>235.5</v>
+        <v>247</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2217,10 +2217,10 @@
         <v>1221</v>
       </c>
       <c r="C131">
-        <v>1290</v>
+        <v>1174</v>
       </c>
       <c r="D131">
-        <v>1255.5</v>
+        <v>1197.5</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2231,10 +2231,10 @@
         <v>123</v>
       </c>
       <c r="C132">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="D132">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2245,10 +2245,10 @@
         <v>2002</v>
       </c>
       <c r="C133">
-        <v>2035</v>
+        <v>2018</v>
       </c>
       <c r="D133">
-        <v>2018.5</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2259,10 +2259,10 @@
         <v>1633</v>
       </c>
       <c r="C134">
-        <v>1721</v>
+        <v>1658</v>
       </c>
       <c r="D134">
-        <v>1677</v>
+        <v>1645.5</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2273,10 +2273,10 @@
         <v>806</v>
       </c>
       <c r="C135">
-        <v>821</v>
+        <v>862</v>
       </c>
       <c r="D135">
-        <v>813.5</v>
+        <v>834</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2287,10 +2287,10 @@
         <v>1314</v>
       </c>
       <c r="C136">
-        <v>1274</v>
+        <v>1266</v>
       </c>
       <c r="D136">
-        <v>1294</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2301,10 +2301,10 @@
         <v>174</v>
       </c>
       <c r="C137">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="D137">
-        <v>174.5</v>
+        <v>181</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2315,10 +2315,10 @@
         <v>1032</v>
       </c>
       <c r="C138">
-        <v>1005</v>
+        <v>984</v>
       </c>
       <c r="D138">
-        <v>1018.5</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2329,10 +2329,10 @@
         <v>890</v>
       </c>
       <c r="C139">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="D139">
-        <v>912.5</v>
+        <v>908</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2343,10 +2343,10 @@
         <v>395</v>
       </c>
       <c r="C140">
-        <v>506</v>
+        <v>474</v>
       </c>
       <c r="D140">
-        <v>450.5</v>
+        <v>434.5</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2357,10 +2357,10 @@
         <v>2177</v>
       </c>
       <c r="C141">
-        <v>2137</v>
+        <v>2145</v>
       </c>
       <c r="D141">
-        <v>2157</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2371,10 +2371,10 @@
         <v>813</v>
       </c>
       <c r="C142">
-        <v>831</v>
+        <v>692</v>
       </c>
       <c r="D142">
-        <v>822</v>
+        <v>752.5</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2385,10 +2385,10 @@
         <v>1352</v>
       </c>
       <c r="C143">
-        <v>1510</v>
+        <v>1355</v>
       </c>
       <c r="D143">
-        <v>1431</v>
+        <v>1353.5</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2399,10 +2399,10 @@
         <v>587</v>
       </c>
       <c r="C144">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="D144">
-        <v>584</v>
+        <v>587.5</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2413,10 +2413,10 @@
         <v>387</v>
       </c>
       <c r="C145">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D145">
-        <v>425.5</v>
+        <v>424</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2427,10 +2427,10 @@
         <v>568</v>
       </c>
       <c r="C146">
-        <v>6</v>
+        <v>578</v>
       </c>
       <c r="D146">
-        <v>287</v>
+        <v>573</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2441,10 +2441,10 @@
         <v>273</v>
       </c>
       <c r="C147">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="D147">
-        <v>278</v>
+        <v>297.5</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2455,10 +2455,10 @@
         <v>573</v>
       </c>
       <c r="C148">
-        <v>625</v>
+        <v>585</v>
       </c>
       <c r="D148">
-        <v>599</v>
+        <v>579</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2469,10 +2469,10 @@
         <v>86</v>
       </c>
       <c r="C149">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D149">
-        <v>113.5</v>
+        <v>118.5</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2483,10 +2483,10 @@
         <v>862</v>
       </c>
       <c r="C150">
-        <v>9</v>
+        <v>871</v>
       </c>
       <c r="D150">
-        <v>435.5</v>
+        <v>866.5</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2497,10 +2497,10 @@
         <v>1046</v>
       </c>
       <c r="C151">
-        <v>1035</v>
+        <v>1021</v>
       </c>
       <c r="D151">
-        <v>1040.5</v>
+        <v>1033.5</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2511,10 +2511,10 @@
         <v>652</v>
       </c>
       <c r="C152">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="D152">
-        <v>663.5</v>
+        <v>656.5</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2525,10 +2525,10 @@
         <v>149</v>
       </c>
       <c r="C153">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D153">
-        <v>183.5</v>
+        <v>189</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2539,10 +2539,10 @@
         <v>795</v>
       </c>
       <c r="C154">
-        <v>792</v>
+        <v>806</v>
       </c>
       <c r="D154">
-        <v>793.5</v>
+        <v>800.5</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2553,10 +2553,10 @@
         <v>20</v>
       </c>
       <c r="C155">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="D155">
-        <v>45.5</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2567,10 +2567,10 @@
         <v>651</v>
       </c>
       <c r="C156">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="D156">
-        <v>662.5</v>
+        <v>655.5</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2581,10 +2581,10 @@
         <v>1769</v>
       </c>
       <c r="C157">
-        <v>1796</v>
+        <v>1819</v>
       </c>
       <c r="D157">
-        <v>1782.5</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2595,10 +2595,10 @@
         <v>126</v>
       </c>
       <c r="C158">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="D158">
-        <v>139.5</v>
+        <v>160.5</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2609,10 +2609,10 @@
         <v>996</v>
       </c>
       <c r="C159">
-        <v>1061</v>
+        <v>977</v>
       </c>
       <c r="D159">
-        <v>1028.5</v>
+        <v>986.5</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2623,10 +2623,10 @@
         <v>367</v>
       </c>
       <c r="C160">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="D160">
-        <v>392</v>
+        <v>375</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2637,10 +2637,10 @@
         <v>103</v>
       </c>
       <c r="C161">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="D161">
-        <v>131.5</v>
+        <v>143.5</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2651,10 +2651,10 @@
         <v>1412</v>
       </c>
       <c r="C162">
-        <v>1341</v>
+        <v>1440</v>
       </c>
       <c r="D162">
-        <v>1376.5</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2665,10 +2665,10 @@
         <v>432</v>
       </c>
       <c r="C163">
-        <v>463</v>
+        <v>57</v>
       </c>
       <c r="D163">
-        <v>447.5</v>
+        <v>244.5</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2679,10 +2679,10 @@
         <v>242</v>
       </c>
       <c r="C164">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="D164">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2693,10 +2693,10 @@
         <v>147</v>
       </c>
       <c r="C165">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="D165">
-        <v>160.5</v>
+        <v>178.5</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2707,10 +2707,10 @@
         <v>93</v>
       </c>
       <c r="C166">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D166">
-        <v>129</v>
+        <v>133.5</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2721,10 +2721,10 @@
         <v>2061</v>
       </c>
       <c r="C167">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="D167">
-        <v>2052</v>
+        <v>2052.5</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2735,10 +2735,10 @@
         <v>759</v>
       </c>
       <c r="C168">
-        <v>745</v>
+        <v>724</v>
       </c>
       <c r="D168">
-        <v>752</v>
+        <v>741.5</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2749,10 +2749,10 @@
         <v>1306</v>
       </c>
       <c r="C169">
-        <v>1348</v>
+        <v>1224</v>
       </c>
       <c r="D169">
-        <v>1327</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2763,10 +2763,10 @@
         <v>310</v>
       </c>
       <c r="C170">
-        <v>47</v>
+        <v>406</v>
       </c>
       <c r="D170">
-        <v>178.5</v>
+        <v>358</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2777,10 +2777,10 @@
         <v>152</v>
       </c>
       <c r="C171">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="D171">
-        <v>167.5</v>
+        <v>190</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2791,10 +2791,10 @@
         <v>244</v>
       </c>
       <c r="C172">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="D172">
-        <v>266.5</v>
+        <v>275</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2805,10 +2805,10 @@
         <v>28</v>
       </c>
       <c r="C173">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="D173">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2819,10 +2819,10 @@
         <v>1545</v>
       </c>
       <c r="C174">
-        <v>1493</v>
+        <v>1456</v>
       </c>
       <c r="D174">
-        <v>1519</v>
+        <v>1500.5</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2833,10 +2833,10 @@
         <v>1089</v>
       </c>
       <c r="C175">
-        <v>1092</v>
+        <v>1082</v>
       </c>
       <c r="D175">
-        <v>1090.5</v>
+        <v>1085.5</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2847,10 +2847,10 @@
         <v>509</v>
       </c>
       <c r="C176">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="D176">
-        <v>469</v>
+        <v>464.5</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2861,10 +2861,10 @@
         <v>1371</v>
       </c>
       <c r="C177">
-        <v>1370</v>
+        <v>1393</v>
       </c>
       <c r="D177">
-        <v>1370.5</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2875,10 +2875,10 @@
         <v>141</v>
       </c>
       <c r="C178">
-        <v>211</v>
+        <v>64</v>
       </c>
       <c r="D178">
-        <v>176</v>
+        <v>102.5</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2889,10 +2889,10 @@
         <v>992</v>
       </c>
       <c r="C179">
-        <v>997</v>
+        <v>1079</v>
       </c>
       <c r="D179">
-        <v>994.5</v>
+        <v>1035.5</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2903,10 +2903,10 @@
         <v>870</v>
       </c>
       <c r="C180">
-        <v>725</v>
+        <v>773</v>
       </c>
       <c r="D180">
-        <v>797.5</v>
+        <v>821.5</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2917,10 +2917,10 @@
         <v>1137</v>
       </c>
       <c r="C181">
-        <v>1116</v>
+        <v>1161</v>
       </c>
       <c r="D181">
-        <v>1126.5</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2931,10 +2931,10 @@
         <v>446</v>
       </c>
       <c r="C182">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="D182">
-        <v>478</v>
+        <v>470.5</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2945,10 +2945,10 @@
         <v>577</v>
       </c>
       <c r="C183">
-        <v>594</v>
+        <v>564</v>
       </c>
       <c r="D183">
-        <v>585.5</v>
+        <v>570.5</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2959,10 +2959,10 @@
         <v>112</v>
       </c>
       <c r="C184">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="D184">
-        <v>158</v>
+        <v>97</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2973,10 +2973,10 @@
         <v>30</v>
       </c>
       <c r="C185">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="D185">
-        <v>58</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2987,10 +2987,10 @@
         <v>340</v>
       </c>
       <c r="C186">
-        <v>355</v>
+        <v>14</v>
       </c>
       <c r="D186">
-        <v>347.5</v>
+        <v>177</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3001,10 +3001,10 @@
         <v>89</v>
       </c>
       <c r="C187">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="D187">
-        <v>116</v>
+        <v>133.5</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3015,10 +3015,10 @@
         <v>468</v>
       </c>
       <c r="C188">
-        <v>328</v>
+        <v>489</v>
       </c>
       <c r="D188">
-        <v>398</v>
+        <v>478.5</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3029,10 +3029,10 @@
         <v>653</v>
       </c>
       <c r="C189">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="D189">
-        <v>664.5</v>
+        <v>657.5</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3043,10 +3043,10 @@
         <v>92</v>
       </c>
       <c r="C190">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D190">
-        <v>128</v>
+        <v>132.5</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3057,10 +3057,10 @@
         <v>284</v>
       </c>
       <c r="C191">
-        <v>397</v>
+        <v>360</v>
       </c>
       <c r="D191">
-        <v>340.5</v>
+        <v>322</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3071,10 +3071,10 @@
         <v>628</v>
       </c>
       <c r="C192">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="D192">
-        <v>640</v>
+        <v>633.5</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3085,10 +3085,10 @@
         <v>128</v>
       </c>
       <c r="C193">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="D193">
-        <v>156</v>
+        <v>172.5</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3099,10 +3099,10 @@
         <v>162</v>
       </c>
       <c r="C194">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="D194">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3113,10 +3113,10 @@
         <v>337</v>
       </c>
       <c r="C195">
-        <v>412</v>
+        <v>375</v>
       </c>
       <c r="D195">
-        <v>374.5</v>
+        <v>356</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3127,10 +3127,10 @@
         <v>154</v>
       </c>
       <c r="C196">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D196">
-        <v>168</v>
+        <v>178.5</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3141,10 +3141,10 @@
         <v>953</v>
       </c>
       <c r="C197">
-        <v>998</v>
+        <v>961</v>
       </c>
       <c r="D197">
-        <v>975.5</v>
+        <v>957</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3155,10 +3155,10 @@
         <v>891</v>
       </c>
       <c r="C198">
-        <v>897</v>
+        <v>943</v>
       </c>
       <c r="D198">
-        <v>894</v>
+        <v>917</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3169,10 +3169,10 @@
         <v>1057</v>
       </c>
       <c r="C199">
-        <v>1146</v>
+        <v>1103</v>
       </c>
       <c r="D199">
-        <v>1101.5</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3183,10 +3183,10 @@
         <v>323</v>
       </c>
       <c r="C200">
-        <v>339</v>
+        <v>19</v>
       </c>
       <c r="D200">
-        <v>331</v>
+        <v>171</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3197,10 +3197,10 @@
         <v>581</v>
       </c>
       <c r="C201">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="D201">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3211,10 +3211,10 @@
         <v>301</v>
       </c>
       <c r="C202">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="D202">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3225,10 +3225,10 @@
         <v>1705</v>
       </c>
       <c r="C203">
-        <v>1723</v>
+        <v>1752</v>
       </c>
       <c r="D203">
-        <v>1714</v>
+        <v>1728.5</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3239,10 +3239,10 @@
         <v>324</v>
       </c>
       <c r="C204">
-        <v>353</v>
+        <v>2</v>
       </c>
       <c r="D204">
-        <v>338.5</v>
+        <v>163</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3253,10 +3253,10 @@
         <v>1726</v>
       </c>
       <c r="C205">
-        <v>1739</v>
+        <v>1663</v>
       </c>
       <c r="D205">
-        <v>1732.5</v>
+        <v>1694.5</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3267,10 +3267,10 @@
         <v>138</v>
       </c>
       <c r="C206">
-        <v>179</v>
+        <v>222</v>
       </c>
       <c r="D206">
-        <v>158.5</v>
+        <v>180</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3281,10 +3281,10 @@
         <v>428</v>
       </c>
       <c r="C207">
-        <v>475</v>
+        <v>332</v>
       </c>
       <c r="D207">
-        <v>451.5</v>
+        <v>380</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3295,10 +3295,10 @@
         <v>829</v>
       </c>
       <c r="C208">
-        <v>794</v>
+        <v>874</v>
       </c>
       <c r="D208">
-        <v>811.5</v>
+        <v>851.5</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3309,10 +3309,10 @@
         <v>1076</v>
       </c>
       <c r="C209">
-        <v>1042</v>
+        <v>1095</v>
       </c>
       <c r="D209">
-        <v>1059</v>
+        <v>1085.5</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3323,10 +3323,10 @@
         <v>997</v>
       </c>
       <c r="C210">
-        <v>1030</v>
+        <v>1044</v>
       </c>
       <c r="D210">
-        <v>1013.5</v>
+        <v>1020.5</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3337,10 +3337,10 @@
         <v>1665</v>
       </c>
       <c r="C211">
-        <v>1668</v>
+        <v>1656</v>
       </c>
       <c r="D211">
-        <v>1666.5</v>
+        <v>1660.5</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3351,10 +3351,10 @@
         <v>96</v>
       </c>
       <c r="C212">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="D212">
-        <v>124</v>
+        <v>146</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3365,10 +3365,10 @@
         <v>1007</v>
       </c>
       <c r="C213">
-        <v>1088</v>
+        <v>1036</v>
       </c>
       <c r="D213">
-        <v>1047.5</v>
+        <v>1021.5</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3379,10 +3379,10 @@
         <v>2022</v>
       </c>
       <c r="C214">
-        <v>2061</v>
+        <v>2005</v>
       </c>
       <c r="D214">
-        <v>2041.5</v>
+        <v>2013.5</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3393,10 +3393,10 @@
         <v>1435</v>
       </c>
       <c r="C215">
-        <v>1477</v>
+        <v>1457</v>
       </c>
       <c r="D215">
-        <v>1456</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3407,10 +3407,10 @@
         <v>206</v>
       </c>
       <c r="C216">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="D216">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3421,10 +3421,10 @@
         <v>43</v>
       </c>
       <c r="C217">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="D217">
-        <v>77.5</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3435,10 +3435,10 @@
         <v>1857</v>
       </c>
       <c r="C218">
-        <v>1791</v>
+        <v>1731</v>
       </c>
       <c r="D218">
-        <v>1824</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3449,10 +3449,10 @@
         <v>2444</v>
       </c>
       <c r="C219">
-        <v>2435</v>
+        <v>2446</v>
       </c>
       <c r="D219">
-        <v>2439.5</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3463,10 +3463,10 @@
         <v>160</v>
       </c>
       <c r="C220">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="D220">
-        <v>166</v>
+        <v>184</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3477,10 +3477,10 @@
         <v>352</v>
       </c>
       <c r="C221">
-        <v>340</v>
+        <v>411</v>
       </c>
       <c r="D221">
-        <v>346</v>
+        <v>381.5</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3491,10 +3491,10 @@
         <v>295</v>
       </c>
       <c r="C222">
-        <v>302</v>
+        <v>352</v>
       </c>
       <c r="D222">
-        <v>298.5</v>
+        <v>323.5</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3505,10 +3505,10 @@
         <v>781</v>
       </c>
       <c r="C223">
-        <v>776</v>
+        <v>838</v>
       </c>
       <c r="D223">
-        <v>778.5</v>
+        <v>809.5</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3519,10 +3519,10 @@
         <v>6</v>
       </c>
       <c r="C224">
-        <v>219</v>
+        <v>25</v>
       </c>
       <c r="D224">
-        <v>112.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3533,10 +3533,10 @@
         <v>80</v>
       </c>
       <c r="C225">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="D225">
-        <v>101.5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3547,10 +3547,10 @@
         <v>421</v>
       </c>
       <c r="C226">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="D226">
-        <v>430.5</v>
+        <v>422.5</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3561,10 +3561,10 @@
         <v>419</v>
       </c>
       <c r="C227">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="D227">
-        <v>464</v>
+        <v>459.5</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3575,10 +3575,10 @@
         <v>1177</v>
       </c>
       <c r="C228">
-        <v>1263</v>
+        <v>1173</v>
       </c>
       <c r="D228">
-        <v>1220</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3589,10 +3589,10 @@
         <v>207</v>
       </c>
       <c r="C229">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="D229">
-        <v>135.5</v>
+        <v>235.5</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3603,10 +3603,10 @@
         <v>156</v>
       </c>
       <c r="C230">
-        <v>215</v>
+        <v>52</v>
       </c>
       <c r="D230">
-        <v>185.5</v>
+        <v>104</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3617,10 +3617,10 @@
         <v>1419</v>
       </c>
       <c r="C231">
-        <v>1394</v>
+        <v>1364</v>
       </c>
       <c r="D231">
-        <v>1406.5</v>
+        <v>1391.5</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3631,10 +3631,10 @@
         <v>930</v>
       </c>
       <c r="C232">
-        <v>961</v>
+        <v>1042</v>
       </c>
       <c r="D232">
-        <v>945.5</v>
+        <v>986</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3645,10 +3645,10 @@
         <v>839</v>
       </c>
       <c r="C233">
-        <v>810</v>
+        <v>767</v>
       </c>
       <c r="D233">
-        <v>824.5</v>
+        <v>803</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3659,10 +3659,10 @@
         <v>272</v>
       </c>
       <c r="C234">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="D234">
-        <v>273.5</v>
+        <v>290.5</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3673,10 +3673,10 @@
         <v>105</v>
       </c>
       <c r="C235">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="D235">
-        <v>135.5</v>
+        <v>152.5</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3687,10 +3687,10 @@
         <v>993</v>
       </c>
       <c r="C236">
-        <v>1019</v>
+        <v>835</v>
       </c>
       <c r="D236">
-        <v>1006</v>
+        <v>914</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3701,10 +3701,10 @@
         <v>253</v>
       </c>
       <c r="C237">
-        <v>46</v>
+        <v>315</v>
       </c>
       <c r="D237">
-        <v>149.5</v>
+        <v>284</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3715,10 +3715,10 @@
         <v>805</v>
       </c>
       <c r="C238">
-        <v>4</v>
+        <v>855</v>
       </c>
       <c r="D238">
-        <v>404.5</v>
+        <v>830</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3729,10 +3729,10 @@
         <v>1719</v>
       </c>
       <c r="C239">
-        <v>1706</v>
+        <v>1678</v>
       </c>
       <c r="D239">
-        <v>1712.5</v>
+        <v>1698.5</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3743,10 +3743,10 @@
         <v>418</v>
       </c>
       <c r="C240">
-        <v>489</v>
+        <v>441</v>
       </c>
       <c r="D240">
-        <v>453.5</v>
+        <v>429.5</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3757,10 +3757,10 @@
         <v>358</v>
       </c>
       <c r="C241">
-        <v>416</v>
+        <v>378</v>
       </c>
       <c r="D241">
-        <v>387</v>
+        <v>368</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3771,10 +3771,10 @@
         <v>15</v>
       </c>
       <c r="C242">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="D242">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3785,10 +3785,10 @@
         <v>390</v>
       </c>
       <c r="C243">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="D243">
-        <v>411.5</v>
+        <v>390</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3799,10 +3799,10 @@
         <v>711</v>
       </c>
       <c r="C244">
-        <v>748</v>
+        <v>716</v>
       </c>
       <c r="D244">
-        <v>729.5</v>
+        <v>713.5</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3813,10 +3813,10 @@
         <v>334</v>
       </c>
       <c r="C245">
-        <v>363</v>
+        <v>9</v>
       </c>
       <c r="D245">
-        <v>348.5</v>
+        <v>171.5</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3827,10 +3827,10 @@
         <v>54</v>
       </c>
       <c r="C246">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="D246">
-        <v>85</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -3841,10 +3841,10 @@
         <v>262</v>
       </c>
       <c r="C247">
-        <v>70</v>
+        <v>320</v>
       </c>
       <c r="D247">
-        <v>166</v>
+        <v>291</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -3855,10 +3855,10 @@
         <v>335</v>
       </c>
       <c r="C248">
-        <v>332</v>
+        <v>92</v>
       </c>
       <c r="D248">
-        <v>333.5</v>
+        <v>213.5</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -3869,10 +3869,10 @@
         <v>169</v>
       </c>
       <c r="C249">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="D249">
-        <v>185</v>
+        <v>192.5</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -3883,10 +3883,10 @@
         <v>1220</v>
       </c>
       <c r="C250">
-        <v>1321</v>
+        <v>1239</v>
       </c>
       <c r="D250">
-        <v>1270.5</v>
+        <v>1229.5</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -3897,10 +3897,10 @@
         <v>1393</v>
       </c>
       <c r="C251">
-        <v>1450</v>
+        <v>1399</v>
       </c>
       <c r="D251">
-        <v>1421.5</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -3911,10 +3911,10 @@
         <v>137</v>
       </c>
       <c r="C252">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="D252">
-        <v>172.5</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -3925,10 +3925,10 @@
         <v>635</v>
       </c>
       <c r="C253">
-        <v>653</v>
+        <v>636</v>
       </c>
       <c r="D253">
-        <v>644</v>
+        <v>635.5</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -3939,10 +3939,10 @@
         <v>1294</v>
       </c>
       <c r="C254">
-        <v>1313</v>
+        <v>1362</v>
       </c>
       <c r="D254">
-        <v>1303.5</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -3953,10 +3953,10 @@
         <v>1307</v>
       </c>
       <c r="C255">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="D255">
-        <v>1286.5</v>
+        <v>1284.5</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -3967,10 +3967,10 @@
         <v>396</v>
       </c>
       <c r="C256">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="D256">
-        <v>428.5</v>
+        <v>424.5</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -3981,10 +3981,10 @@
         <v>907</v>
       </c>
       <c r="C257">
-        <v>896</v>
+        <v>906</v>
       </c>
       <c r="D257">
-        <v>901.5</v>
+        <v>906.5</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -3995,10 +3995,10 @@
         <v>37</v>
       </c>
       <c r="C258">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="D258">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4009,10 +4009,10 @@
         <v>959</v>
       </c>
       <c r="C259">
-        <v>919</v>
+        <v>962</v>
       </c>
       <c r="D259">
-        <v>939</v>
+        <v>960.5</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4023,10 +4023,10 @@
         <v>5</v>
       </c>
       <c r="C260">
-        <v>222</v>
+        <v>24</v>
       </c>
       <c r="D260">
-        <v>113.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4037,10 +4037,10 @@
         <v>627</v>
       </c>
       <c r="C261">
-        <v>729</v>
+        <v>614</v>
       </c>
       <c r="D261">
-        <v>678</v>
+        <v>620.5</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4051,10 +4051,10 @@
         <v>104</v>
       </c>
       <c r="C262">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="D262">
-        <v>130.5</v>
+        <v>142</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4065,10 +4065,10 @@
         <v>585</v>
       </c>
       <c r="C263">
-        <v>565</v>
+        <v>597</v>
       </c>
       <c r="D263">
-        <v>575</v>
+        <v>591</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4079,10 +4079,10 @@
         <v>250</v>
       </c>
       <c r="C264">
-        <v>33</v>
+        <v>285</v>
       </c>
       <c r="D264">
-        <v>141.5</v>
+        <v>267.5</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4093,10 +4093,10 @@
         <v>348</v>
       </c>
       <c r="C265">
-        <v>357</v>
+        <v>12</v>
       </c>
       <c r="D265">
-        <v>352.5</v>
+        <v>180</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4107,10 +4107,10 @@
         <v>1377</v>
       </c>
       <c r="C266">
-        <v>1461</v>
+        <v>1427</v>
       </c>
       <c r="D266">
-        <v>1419</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4121,10 +4121,10 @@
         <v>932</v>
       </c>
       <c r="C267">
-        <v>948</v>
+        <v>936</v>
       </c>
       <c r="D267">
-        <v>940</v>
+        <v>934</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4135,10 +4135,10 @@
         <v>648</v>
       </c>
       <c r="C268">
-        <v>640</v>
+        <v>664</v>
       </c>
       <c r="D268">
-        <v>644</v>
+        <v>656</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4149,10 +4149,10 @@
         <v>634</v>
       </c>
       <c r="C269">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="D269">
-        <v>640.5</v>
+        <v>634.5</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4163,10 +4163,10 @@
         <v>361</v>
       </c>
       <c r="C270">
-        <v>421</v>
+        <v>371</v>
       </c>
       <c r="D270">
-        <v>391</v>
+        <v>366</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4177,10 +4177,10 @@
         <v>254</v>
       </c>
       <c r="C271">
-        <v>50</v>
+        <v>314</v>
       </c>
       <c r="D271">
-        <v>152</v>
+        <v>284</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4191,10 +4191,10 @@
         <v>275</v>
       </c>
       <c r="C272">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="D272">
-        <v>297</v>
+        <v>282.5</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4205,10 +4205,10 @@
         <v>4</v>
       </c>
       <c r="C273">
-        <v>268</v>
+        <v>26</v>
       </c>
       <c r="D273">
-        <v>136</v>
+        <v>15</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4219,10 +4219,10 @@
         <v>205</v>
       </c>
       <c r="C274">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="D274">
-        <v>118</v>
+        <v>239</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4233,10 +4233,10 @@
         <v>1233</v>
       </c>
       <c r="C275">
-        <v>1319</v>
+        <v>1231</v>
       </c>
       <c r="D275">
-        <v>1276</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4247,10 +4247,10 @@
         <v>1463</v>
       </c>
       <c r="C276">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="D276">
-        <v>1482.5</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4261,10 +4261,10 @@
         <v>1234</v>
       </c>
       <c r="C277">
-        <v>1320</v>
+        <v>1232</v>
       </c>
       <c r="D277">
-        <v>1277</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4275,10 +4275,10 @@
         <v>535</v>
       </c>
       <c r="C278">
-        <v>579</v>
+        <v>544</v>
       </c>
       <c r="D278">
-        <v>557</v>
+        <v>539.5</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -4289,10 +4289,10 @@
         <v>213</v>
       </c>
       <c r="C279">
-        <v>59</v>
+        <v>284</v>
       </c>
       <c r="D279">
-        <v>136</v>
+        <v>248.5</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="C280">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D280">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4317,10 +4317,10 @@
         <v>487</v>
       </c>
       <c r="C281">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="D281">
-        <v>514</v>
+        <v>503.5</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -4331,10 +4331,10 @@
         <v>300</v>
       </c>
       <c r="C282">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="D282">
-        <v>339</v>
+        <v>325.5</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4345,10 +4345,10 @@
         <v>1153</v>
       </c>
       <c r="C283">
-        <v>1261</v>
+        <v>1087</v>
       </c>
       <c r="D283">
-        <v>1207</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4359,10 +4359,10 @@
         <v>401</v>
       </c>
       <c r="C284">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D284">
-        <v>401</v>
+        <v>400.5</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -4373,10 +4373,10 @@
         <v>800</v>
       </c>
       <c r="C285">
-        <v>805</v>
+        <v>873</v>
       </c>
       <c r="D285">
-        <v>802.5</v>
+        <v>836.5</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4387,10 +4387,10 @@
         <v>1400</v>
       </c>
       <c r="C286">
-        <v>1425</v>
+        <v>1373</v>
       </c>
       <c r="D286">
-        <v>1412.5</v>
+        <v>1386.5</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -4401,10 +4401,10 @@
         <v>333</v>
       </c>
       <c r="C287">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="D287">
-        <v>418</v>
+        <v>424.5</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -4415,10 +4415,10 @@
         <v>427</v>
       </c>
       <c r="C288">
-        <v>419</v>
+        <v>89</v>
       </c>
       <c r="D288">
-        <v>423</v>
+        <v>258</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4429,10 +4429,10 @@
         <v>16</v>
       </c>
       <c r="C289">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="D289">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4443,10 +4443,10 @@
         <v>831</v>
       </c>
       <c r="C290">
-        <v>765</v>
+        <v>788</v>
       </c>
       <c r="D290">
-        <v>798</v>
+        <v>809.5</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -4457,10 +4457,10 @@
         <v>1010</v>
       </c>
       <c r="C291">
-        <v>1057</v>
+        <v>1115</v>
       </c>
       <c r="D291">
-        <v>1033.5</v>
+        <v>1062.5</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -4471,10 +4471,10 @@
         <v>458</v>
       </c>
       <c r="C292">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="D292">
-        <v>470</v>
+        <v>454</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -4485,10 +4485,10 @@
         <v>609</v>
       </c>
       <c r="C293">
-        <v>719</v>
+        <v>737</v>
       </c>
       <c r="D293">
-        <v>664</v>
+        <v>673</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -4499,10 +4499,10 @@
         <v>629</v>
       </c>
       <c r="C294">
-        <v>649</v>
+        <v>632</v>
       </c>
       <c r="D294">
-        <v>639</v>
+        <v>630.5</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -4513,10 +4513,10 @@
         <v>17</v>
       </c>
       <c r="C295">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="D295">
-        <v>45.5</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -4527,10 +4527,10 @@
         <v>73</v>
       </c>
       <c r="C296">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="D296">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -4541,10 +4541,10 @@
         <v>589</v>
       </c>
       <c r="C297">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="D297">
-        <v>586</v>
+        <v>591</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -4555,10 +4555,10 @@
         <v>318</v>
       </c>
       <c r="C298">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="D298">
-        <v>319</v>
+        <v>328.5</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -4569,10 +4569,10 @@
         <v>909</v>
       </c>
       <c r="C299">
-        <v>891</v>
+        <v>949</v>
       </c>
       <c r="D299">
-        <v>900</v>
+        <v>929</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4583,10 +4583,10 @@
         <v>247</v>
       </c>
       <c r="C300">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="D300">
-        <v>266.5</v>
+        <v>273</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -4597,10 +4597,10 @@
         <v>459</v>
       </c>
       <c r="C301">
-        <v>481</v>
+        <v>449</v>
       </c>
       <c r="D301">
-        <v>470</v>
+        <v>454</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -4611,10 +4611,10 @@
         <v>802</v>
       </c>
       <c r="C302">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D302">
-        <v>777.5</v>
+        <v>775.5</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -4625,10 +4625,10 @@
         <v>87</v>
       </c>
       <c r="C303">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="D303">
-        <v>123</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -4639,10 +4639,10 @@
         <v>601</v>
       </c>
       <c r="C304">
-        <v>606</v>
+        <v>630</v>
       </c>
       <c r="D304">
-        <v>603.5</v>
+        <v>615.5</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -4653,10 +4653,10 @@
         <v>190</v>
       </c>
       <c r="C305">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="D305">
-        <v>233</v>
+        <v>133.5</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -4667,10 +4667,10 @@
         <v>359</v>
       </c>
       <c r="C306">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="D306">
-        <v>352</v>
+        <v>361</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -4681,10 +4681,10 @@
         <v>75</v>
       </c>
       <c r="C307">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="D307">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -4695,10 +4695,10 @@
         <v>515</v>
       </c>
       <c r="C308">
-        <v>575</v>
+        <v>522</v>
       </c>
       <c r="D308">
-        <v>545</v>
+        <v>518.5</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -4709,10 +4709,10 @@
         <v>1159</v>
       </c>
       <c r="C309">
-        <v>1185</v>
+        <v>1260</v>
       </c>
       <c r="D309">
-        <v>1172</v>
+        <v>1209.5</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -4723,10 +4723,10 @@
         <v>186</v>
       </c>
       <c r="C310">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="D310">
-        <v>186.5</v>
+        <v>196.5</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -4737,10 +4737,10 @@
         <v>1716</v>
       </c>
       <c r="C311">
-        <v>1722</v>
+        <v>1673</v>
       </c>
       <c r="D311">
-        <v>1719</v>
+        <v>1694.5</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -4751,10 +4751,10 @@
         <v>211</v>
       </c>
       <c r="C312">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="D312">
-        <v>129.5</v>
+        <v>147</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -4765,10 +4765,10 @@
         <v>1035</v>
       </c>
       <c r="C313">
+        <v>993</v>
+      </c>
+      <c r="D313">
         <v>1014</v>
-      </c>
-      <c r="D313">
-        <v>1024.5</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -4779,10 +4779,10 @@
         <v>188</v>
       </c>
       <c r="C314">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D314">
-        <v>221</v>
+        <v>223.5</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -4793,10 +4793,10 @@
         <v>21</v>
       </c>
       <c r="C315">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="D315">
-        <v>51</v>
+        <v>63.5</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -4807,10 +4807,10 @@
         <v>23</v>
       </c>
       <c r="C316">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="D316">
-        <v>50.5</v>
+        <v>61</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -4821,10 +4821,10 @@
         <v>144</v>
       </c>
       <c r="C317">
-        <v>56</v>
+        <v>223</v>
       </c>
       <c r="D317">
-        <v>100</v>
+        <v>183.5</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -4835,10 +4835,10 @@
         <v>46</v>
       </c>
       <c r="C318">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="D318">
-        <v>79.5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -4849,10 +4849,10 @@
         <v>861</v>
       </c>
       <c r="C319">
-        <v>12</v>
+        <v>869</v>
       </c>
       <c r="D319">
-        <v>436.5</v>
+        <v>865</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -4863,10 +4863,10 @@
         <v>476</v>
       </c>
       <c r="C320">
-        <v>526</v>
+        <v>492</v>
       </c>
       <c r="D320">
-        <v>501</v>
+        <v>484</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -4877,10 +4877,10 @@
         <v>857</v>
       </c>
       <c r="C321">
-        <v>930</v>
+        <v>876</v>
       </c>
       <c r="D321">
-        <v>893.5</v>
+        <v>866.5</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -4891,10 +4891,10 @@
         <v>761</v>
       </c>
       <c r="C322">
-        <v>709</v>
+        <v>759</v>
       </c>
       <c r="D322">
-        <v>735</v>
+        <v>760</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -4905,10 +4905,10 @@
         <v>1023</v>
       </c>
       <c r="C323">
-        <v>1069</v>
+        <v>1004</v>
       </c>
       <c r="D323">
-        <v>1046</v>
+        <v>1013.5</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -4919,10 +4919,10 @@
         <v>429</v>
       </c>
       <c r="C324">
-        <v>428</v>
+        <v>90</v>
       </c>
       <c r="D324">
-        <v>428.5</v>
+        <v>259.5</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -4933,10 +4933,10 @@
         <v>1611</v>
       </c>
       <c r="C325">
-        <v>1507</v>
+        <v>1606</v>
       </c>
       <c r="D325">
-        <v>1559</v>
+        <v>1608.5</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -4947,10 +4947,10 @@
         <v>316</v>
       </c>
       <c r="C326">
-        <v>343</v>
+        <v>5</v>
       </c>
       <c r="D326">
-        <v>329.5</v>
+        <v>160.5</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -4961,10 +4961,10 @@
         <v>2039</v>
       </c>
       <c r="C327">
-        <v>2014</v>
+        <v>2031</v>
       </c>
       <c r="D327">
-        <v>2026.5</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -4975,10 +4975,10 @@
         <v>690</v>
       </c>
       <c r="C328">
-        <v>627</v>
+        <v>610</v>
       </c>
       <c r="D328">
-        <v>658.5</v>
+        <v>650</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -4989,10 +4989,10 @@
         <v>1070</v>
       </c>
       <c r="C329">
-        <v>1074</v>
+        <v>1100</v>
       </c>
       <c r="D329">
-        <v>1072</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -5003,10 +5003,10 @@
         <v>863</v>
       </c>
       <c r="C330">
-        <v>7</v>
+        <v>870</v>
       </c>
       <c r="D330">
-        <v>435</v>
+        <v>866.5</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -5017,10 +5017,10 @@
         <v>209</v>
       </c>
       <c r="C331">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="D331">
-        <v>217</v>
+        <v>229.5</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -5031,10 +5031,10 @@
         <v>1110</v>
       </c>
       <c r="C332">
-        <v>1065</v>
+        <v>1121</v>
       </c>
       <c r="D332">
-        <v>1087.5</v>
+        <v>1115.5</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5045,10 +5045,10 @@
         <v>809</v>
       </c>
       <c r="C333">
-        <v>8</v>
+        <v>868</v>
       </c>
       <c r="D333">
-        <v>408.5</v>
+        <v>838.5</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -5059,10 +5059,10 @@
         <v>108</v>
       </c>
       <c r="C334">
-        <v>194</v>
+        <v>66</v>
       </c>
       <c r="D334">
-        <v>151</v>
+        <v>87</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -5073,10 +5073,10 @@
         <v>33</v>
       </c>
       <c r="C335">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D335">
-        <v>64.5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5087,10 +5087,10 @@
         <v>111</v>
       </c>
       <c r="C336">
-        <v>195</v>
+        <v>67</v>
       </c>
       <c r="D336">
-        <v>153</v>
+        <v>89</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5101,10 +5101,10 @@
         <v>691</v>
       </c>
       <c r="C337">
-        <v>784</v>
+        <v>624</v>
       </c>
       <c r="D337">
-        <v>737.5</v>
+        <v>657.5</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -5115,7 +5115,7 @@
         <v>616.5582089552239</v>
       </c>
       <c r="C338">
-        <v>621.889880952381</v>
+        <v>626.0952380952381</v>
       </c>
     </row>
   </sheetData>
